--- a/data/annotations/new_annotation_structure_out/iteration_6/iteration_6_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_6/iteration_6_mistral-large-2411-3.xlsx
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -5684,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5831,13 +5831,13 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -8008,10 +8008,10 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -8086,10 +8086,10 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
